--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatanchyn/Downloads/DesignPatterns/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C5422-10F8-B04B-A554-4BADF1787D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D03A654-7E2D-0E4A-AE3B-7000D24E64BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{4242ADF1-D533-4641-B32D-09FB1B41B92F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="18000" xr2:uid="{4242ADF1-D533-4641-B32D-09FB1B41B92F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,37 +34,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Mate</t>
-  </si>
-  <si>
-    <t>How</t>
-  </si>
-  <si>
-    <t>Are</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>sdf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>1223.0</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>3213.0</t>
+  </si>
+  <si>
+    <t>6542.0</t>
+  </si>
+  <si>
+    <t>9213.0</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Sarika</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>20000.0</t>
+  </si>
+  <si>
+    <t>21000.0</t>
+  </si>
+  <si>
+    <t>34000.0</t>
+  </si>
+  <si>
+    <t>Financial Advisor</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans Adlam Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,52 +451,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646101E8-BCA6-EB4D-843B-8F4675143B60}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="19">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariatanchyn/Downloads/DesignPatterns/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D03A654-7E2D-0E4A-AE3B-7000D24E64BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99E16F-57A5-604A-A5EB-5171A0CD7E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="18000" xr2:uid="{4242ADF1-D533-4641-B32D-09FB1B41B92F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Employee ID</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -552,7 +555,9 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="19">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
